--- a/ocms/src/test/resources/TestData/CallbackAnnouncementData.xlsx
+++ b/ocms/src/test/resources/TestData/CallbackAnnouncementData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N20"/>
+  <oleSize ref="A1:M20"/>
 </workbook>
 </file>
 
@@ -74,7 +74,7 @@
   ,Language
   ,LAST_CHANGED_BY as 'Last Changed By'
   ,Substring(LAST_CHANGED_ON,11,19) as 'Last Changed On'
-    FROM [Product_OCM].[dbo].[IVR_Callback_Announcement]</t>
+    FROM [IVR_Callback_Announcement]</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>

--- a/ocms/src/test/resources/TestData/CallbackAnnouncementData.xlsx
+++ b/ocms/src/test/resources/TestData/CallbackAnnouncementData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
+    <workbookView xWindow="5160" yWindow="3315" windowWidth="14775" windowHeight="6495" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M20"/>
+  <oleSize ref="A1:K13"/>
 </workbook>
 </file>
 
@@ -421,7 +421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -590,7 +590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/CallbackAnnouncementData.xlsx
+++ b/ocms/src/test/resources/TestData/CallbackAnnouncementData.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="3315" windowWidth="14775" windowHeight="6495" activeTab="3"/>
+    <workbookView xWindow="5160" yWindow="3315" windowWidth="14775" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,12 +18,11 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K13"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>Wav File</t>
   </si>
@@ -75,6 +79,12 @@
   ,LAST_CHANGED_BY as 'Last Changed By'
   ,Substring(LAST_CHANGED_ON,11,19) as 'Last Changed On'
     FROM [IVR_Callback_Announcement]</t>
+  </si>
+  <si>
+    <t>Man</t>
+  </si>
+  <si>
+    <t>lish</t>
   </si>
 </sst>
 </file>
@@ -128,6 +138,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -175,7 +188,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -210,7 +223,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -419,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,7 +444,7 @@
     <col min="2" max="2" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,7 +458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -457,6 +470,16 @@
       </c>
       <c r="D2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -479,7 +502,7 @@
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -502,7 +525,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -532,7 +555,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -545,7 +568,7 @@
     <col min="5" max="5" width="18" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +585,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -590,7 +613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/CallbackAnnouncementData.xlsx
+++ b/ocms/src/test/resources/TestData/CallbackAnnouncementData.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="3315" windowWidth="14775" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -18,6 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:M20"/>
 </workbook>
 </file>
 
@@ -188,7 +184,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -223,7 +219,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -435,7 +431,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,7 +488,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ocms/src/test/resources/TestData/CallbackAnnouncementData.xlsx
+++ b/ocms/src/test/resources/TestData/CallbackAnnouncementData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14970" windowHeight="8250"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M20"/>
+  <oleSize ref="A1:M25"/>
 </workbook>
 </file>
 
@@ -184,7 +184,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,7 +219,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -488,12 +488,13 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
   </cols>

--- a/ocms/src/test/resources/TestData/CallbackAnnouncementData.xlsx
+++ b/ocms/src/test/resources/TestData/CallbackAnnouncementData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14970" windowHeight="8250"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M25"/>
+  <oleSize ref="A1:Q24"/>
 </workbook>
 </file>
 
@@ -430,7 +430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -554,7 +554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/CallbackAnnouncementData.xlsx
+++ b/ocms/src/test/resources/TestData/CallbackAnnouncementData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14415" windowHeight="6615" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:Q24"/>
+  <oleSize ref="A1:K13"/>
 </workbook>
 </file>
 
@@ -21,9 +21,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>Wav File</t>
-  </si>
-  <si>
-    <t>PinkPanther60.wav</t>
   </si>
   <si>
     <t>Start Time</t>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>lish</t>
+  </si>
+  <si>
+    <t>MainMenu.wav</t>
   </si>
 </sst>
 </file>
@@ -184,7 +184,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,7 +219,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -431,7 +431,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,37 +445,37 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -488,7 +488,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,45 +504,45 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -554,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,33 +570,33 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -610,7 +610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -621,12 +621,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
